--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cthrc1-Fzd5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cthrc1-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.393370215330148</v>
+        <v>0.6191033333333333</v>
       </c>
       <c r="H2">
-        <v>0.393370215330148</v>
+        <v>1.85731</v>
       </c>
       <c r="I2">
-        <v>0.005575393486675192</v>
+        <v>0.007929637811697733</v>
       </c>
       <c r="J2">
-        <v>0.005575393486675192</v>
+        <v>0.007962490129789305</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>9.701505011139769</v>
+        <v>2.676920666666666</v>
       </c>
       <c r="N2">
-        <v>9.701505011139769</v>
+        <v>8.030761999999999</v>
       </c>
       <c r="O2">
-        <v>0.5113332859643277</v>
+        <v>0.1137411923116975</v>
       </c>
       <c r="P2">
-        <v>0.5113332859643277</v>
+        <v>0.1167596329733683</v>
       </c>
       <c r="Q2">
-        <v>3.816283115258561</v>
+        <v>1.657290507802222</v>
       </c>
       <c r="R2">
-        <v>3.816283115258561</v>
+        <v>14.91561457022</v>
       </c>
       <c r="S2">
-        <v>0.002850884272085736</v>
+        <v>0.00090192645930242</v>
       </c>
       <c r="T2">
-        <v>0.002850884272085736</v>
+        <v>0.0009296974251082671</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.393370215330148</v>
+        <v>0.6191033333333333</v>
       </c>
       <c r="H3">
-        <v>0.393370215330148</v>
+        <v>1.85731</v>
       </c>
       <c r="I3">
-        <v>0.005575393486675192</v>
+        <v>0.007929637811697733</v>
       </c>
       <c r="J3">
-        <v>0.005575393486675192</v>
+        <v>0.007962490129789305</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.89917456165405</v>
+        <v>10.75807</v>
       </c>
       <c r="N3">
-        <v>2.89917456165405</v>
+        <v>32.27421</v>
       </c>
       <c r="O3">
-        <v>0.1528056166020154</v>
+        <v>0.4571057050773153</v>
       </c>
       <c r="P3">
-        <v>0.1528056166020154</v>
+        <v>0.4692362834442626</v>
       </c>
       <c r="Q3">
-        <v>1.140448921597541</v>
+        <v>6.660356997233333</v>
       </c>
       <c r="R3">
-        <v>1.140448921597541</v>
+        <v>59.9432129751</v>
       </c>
       <c r="S3">
-        <v>0.0008519514395302633</v>
+        <v>0.003624682682923832</v>
       </c>
       <c r="T3">
-        <v>0.0008519514395302633</v>
+        <v>0.003736289275463958</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.393370215330148</v>
+        <v>0.6191033333333333</v>
       </c>
       <c r="H4">
-        <v>0.393370215330148</v>
+        <v>1.85731</v>
       </c>
       <c r="I4">
-        <v>0.005575393486675192</v>
+        <v>0.007929637811697733</v>
       </c>
       <c r="J4">
-        <v>0.005575393486675192</v>
+        <v>0.007962490129789305</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.56533731985262</v>
+        <v>3.564735333333333</v>
       </c>
       <c r="N4">
-        <v>4.56533731985262</v>
+        <v>10.694206</v>
       </c>
       <c r="O4">
-        <v>0.2406233806626218</v>
+        <v>0.1514640505181089</v>
       </c>
       <c r="P4">
-        <v>0.2406233806626218</v>
+        <v>0.1554835727296604</v>
       </c>
       <c r="Q4">
-        <v>1.795867724565186</v>
+        <v>2.206939527317778</v>
       </c>
       <c r="R4">
-        <v>1.795867724565186</v>
+        <v>19.86245574586</v>
       </c>
       <c r="S4">
-        <v>0.001341570029288147</v>
+        <v>0.001201055062101292</v>
       </c>
       <c r="T4">
-        <v>0.001341570029288147</v>
+        <v>0.001238036413204299</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.393370215330148</v>
+        <v>0.6191033333333333</v>
       </c>
       <c r="H5">
-        <v>0.393370215330148</v>
+        <v>1.85731</v>
       </c>
       <c r="I5">
-        <v>0.005575393486675192</v>
+        <v>0.007929637811697733</v>
       </c>
       <c r="J5">
-        <v>0.005575393486675192</v>
+        <v>0.007962490129789305</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.80694121009788</v>
+        <v>4.710187333333333</v>
       </c>
       <c r="N5">
-        <v>1.80694121009788</v>
+        <v>14.130562</v>
       </c>
       <c r="O5">
-        <v>0.09523771677103515</v>
+        <v>0.2001338067190093</v>
       </c>
       <c r="P5">
-        <v>0.09523771677103515</v>
+        <v>0.2054449170361947</v>
       </c>
       <c r="Q5">
-        <v>0.7107968529051212</v>
+        <v>2.916092678691111</v>
       </c>
       <c r="R5">
-        <v>0.7107968529051212</v>
+        <v>26.24483410822</v>
       </c>
       <c r="S5">
-        <v>0.0005309877457710461</v>
+        <v>0.001586988601158062</v>
       </c>
       <c r="T5">
-        <v>0.0005309877457710461</v>
+        <v>0.001635853124116083</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -779,55 +779,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>69.7065116272673</v>
+        <v>0.6191033333333333</v>
       </c>
       <c r="H6">
-        <v>69.7065116272673</v>
+        <v>1.85731</v>
       </c>
       <c r="I6">
-        <v>0.9879782854920413</v>
+        <v>0.007929637811697733</v>
       </c>
       <c r="J6">
-        <v>0.9879782854920413</v>
+        <v>0.007962490129789305</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.701505011139769</v>
+        <v>1.8252775</v>
       </c>
       <c r="N6">
-        <v>9.701505011139769</v>
+        <v>3.650555</v>
       </c>
       <c r="O6">
-        <v>0.5113332859643277</v>
+        <v>0.07755524537386906</v>
       </c>
       <c r="P6">
-        <v>0.5113332859643277</v>
+        <v>0.05307559381651387</v>
       </c>
       <c r="Q6">
-        <v>676.2580718610063</v>
+        <v>1.130035384508333</v>
       </c>
       <c r="R6">
-        <v>676.2580718610063</v>
+        <v>6.780212307049999</v>
       </c>
       <c r="S6">
-        <v>0.5051861831820481</v>
+        <v>0.0006149850062121278</v>
       </c>
       <c r="T6">
-        <v>0.5051861831820481</v>
+        <v>0.000422613891896698</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>69.7065116272673</v>
+        <v>76.48912033333333</v>
       </c>
       <c r="H7">
-        <v>69.7065116272673</v>
+        <v>229.467361</v>
       </c>
       <c r="I7">
-        <v>0.9879782854920413</v>
+        <v>0.9796927073757713</v>
       </c>
       <c r="J7">
-        <v>0.9879782854920413</v>
+        <v>0.9837515530909214</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.89917456165405</v>
+        <v>2.676920666666666</v>
       </c>
       <c r="N7">
-        <v>2.89917456165405</v>
+        <v>8.030761999999999</v>
       </c>
       <c r="O7">
-        <v>0.1528056166020154</v>
+        <v>0.1137411923116975</v>
       </c>
       <c r="P7">
-        <v>0.1528056166020154</v>
+        <v>0.1167596329733683</v>
       </c>
       <c r="Q7">
-        <v>202.0913452914156</v>
+        <v>204.7553069954535</v>
       </c>
       <c r="R7">
-        <v>202.0913452914156</v>
+        <v>1842.797762959082</v>
       </c>
       <c r="S7">
-        <v>0.1509686311040134</v>
+        <v>0.1114314166359952</v>
       </c>
       <c r="T7">
-        <v>0.1509686311040134</v>
+        <v>0.1148624702758771</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>69.7065116272673</v>
+        <v>76.48912033333333</v>
       </c>
       <c r="H8">
-        <v>69.7065116272673</v>
+        <v>229.467361</v>
       </c>
       <c r="I8">
-        <v>0.9879782854920413</v>
+        <v>0.9796927073757713</v>
       </c>
       <c r="J8">
-        <v>0.9879782854920413</v>
+        <v>0.9837515530909214</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.56533731985262</v>
+        <v>10.75807</v>
       </c>
       <c r="N8">
-        <v>4.56533731985262</v>
+        <v>32.27421</v>
       </c>
       <c r="O8">
-        <v>0.2406233806626218</v>
+        <v>0.4571057050773153</v>
       </c>
       <c r="P8">
-        <v>0.2406233806626218</v>
+        <v>0.4692362834442626</v>
       </c>
       <c r="Q8">
-        <v>318.233738968704</v>
+        <v>822.8753107844232</v>
       </c>
       <c r="R8">
-        <v>318.233738968704</v>
+        <v>7405.877797059808</v>
       </c>
       <c r="S8">
-        <v>0.2377306750763559</v>
+        <v>0.4478231257641059</v>
       </c>
       <c r="T8">
-        <v>0.2377306750763559</v>
+        <v>0.4616119226049052</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>69.7065116272673</v>
+        <v>76.48912033333333</v>
       </c>
       <c r="H9">
-        <v>69.7065116272673</v>
+        <v>229.467361</v>
       </c>
       <c r="I9">
-        <v>0.9879782854920413</v>
+        <v>0.9796927073757713</v>
       </c>
       <c r="J9">
-        <v>0.9879782854920413</v>
+        <v>0.9837515530909214</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.80694121009788</v>
+        <v>3.564735333333333</v>
       </c>
       <c r="N9">
-        <v>1.80694121009788</v>
+        <v>10.694206</v>
       </c>
       <c r="O9">
-        <v>0.09523771677103515</v>
+        <v>0.1514640505181089</v>
       </c>
       <c r="P9">
-        <v>0.09523771677103515</v>
+        <v>0.1554835727296604</v>
       </c>
       <c r="Q9">
-        <v>125.9555684714763</v>
+        <v>272.6634698678184</v>
       </c>
       <c r="R9">
-        <v>125.9555684714763</v>
+        <v>2453.971228810366</v>
       </c>
       <c r="S9">
-        <v>0.09409279612962393</v>
+        <v>0.1483882257221867</v>
       </c>
       <c r="T9">
-        <v>0.09409279612962393</v>
+        <v>0.1529572061529287</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1027,60 +1027,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.454818246333632</v>
+        <v>76.48912033333333</v>
       </c>
       <c r="H10">
-        <v>0.454818246333632</v>
+        <v>229.467361</v>
       </c>
       <c r="I10">
-        <v>0.006446321021283539</v>
+        <v>0.9796927073757713</v>
       </c>
       <c r="J10">
-        <v>0.006446321021283539</v>
+        <v>0.9837515530909214</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.701505011139769</v>
+        <v>4.710187333333333</v>
       </c>
       <c r="N10">
-        <v>9.701505011139769</v>
+        <v>14.130562</v>
       </c>
       <c r="O10">
-        <v>0.5113332859643277</v>
+        <v>0.2001338067190093</v>
       </c>
       <c r="P10">
-        <v>0.5113332859643277</v>
+        <v>0.2054449170361947</v>
       </c>
       <c r="Q10">
-        <v>4.412421495963533</v>
+        <v>360.2780857318758</v>
       </c>
       <c r="R10">
-        <v>4.412421495963533</v>
+        <v>3242.502771586881</v>
       </c>
       <c r="S10">
-        <v>0.003296218510193833</v>
+        <v>0.1960696309419656</v>
       </c>
       <c r="T10">
-        <v>0.003296218510193833</v>
+        <v>0.2021067562089921</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1089,55 +1089,55 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.454818246333632</v>
+        <v>76.48912033333333</v>
       </c>
       <c r="H11">
-        <v>0.454818246333632</v>
+        <v>229.467361</v>
       </c>
       <c r="I11">
-        <v>0.006446321021283539</v>
+        <v>0.9796927073757713</v>
       </c>
       <c r="J11">
-        <v>0.006446321021283539</v>
+        <v>0.9837515530909214</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.89917456165405</v>
+        <v>1.8252775</v>
       </c>
       <c r="N11">
-        <v>2.89917456165405</v>
+        <v>3.650555</v>
       </c>
       <c r="O11">
-        <v>0.1528056166020154</v>
+        <v>0.07755524537386906</v>
       </c>
       <c r="P11">
-        <v>0.1528056166020154</v>
+        <v>0.05307559381651387</v>
       </c>
       <c r="Q11">
-        <v>1.318597489946571</v>
+        <v>139.6138703392258</v>
       </c>
       <c r="R11">
-        <v>1.318597489946571</v>
+        <v>837.6832220353549</v>
       </c>
       <c r="S11">
-        <v>0.0009850340584717648</v>
+        <v>0.07598030831151804</v>
       </c>
       <c r="T11">
-        <v>0.0009850340584717648</v>
+        <v>0.05221319784821843</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.454818246333632</v>
+        <v>0.9663805</v>
       </c>
       <c r="H12">
-        <v>0.454818246333632</v>
+        <v>1.932761</v>
       </c>
       <c r="I12">
-        <v>0.006446321021283539</v>
+        <v>0.01237765481253107</v>
       </c>
       <c r="J12">
-        <v>0.006446321021283539</v>
+        <v>0.008285956779289245</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>4.56533731985262</v>
+        <v>2.676920666666666</v>
       </c>
       <c r="N12">
-        <v>4.56533731985262</v>
+        <v>8.030761999999999</v>
       </c>
       <c r="O12">
-        <v>0.2406233806626218</v>
+        <v>0.1137411923116975</v>
       </c>
       <c r="P12">
-        <v>0.2406233806626218</v>
+        <v>0.1167596329733683</v>
       </c>
       <c r="Q12">
-        <v>2.076398713736852</v>
+        <v>2.586923932313666</v>
       </c>
       <c r="R12">
-        <v>2.076398713736852</v>
+        <v>15.521543593882</v>
       </c>
       <c r="S12">
-        <v>0.00155113555697777</v>
+        <v>0.001407849216399905</v>
       </c>
       <c r="T12">
-        <v>0.00155113555697777</v>
+        <v>0.0009674652723830053</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,55 +1213,241 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9663805</v>
+      </c>
+      <c r="H13">
+        <v>1.932761</v>
+      </c>
+      <c r="I13">
+        <v>0.01237765481253107</v>
+      </c>
+      <c r="J13">
+        <v>0.008285956779289245</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>10.75807</v>
+      </c>
+      <c r="N13">
+        <v>32.27421</v>
+      </c>
+      <c r="O13">
+        <v>0.4571057050773153</v>
+      </c>
+      <c r="P13">
+        <v>0.4692362834442626</v>
+      </c>
+      <c r="Q13">
+        <v>10.396389065635</v>
+      </c>
+      <c r="R13">
+        <v>62.37833439380999</v>
+      </c>
+      <c r="S13">
+        <v>0.00565789663028564</v>
+      </c>
+      <c r="T13">
+        <v>0.003888071563893477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.454818246333632</v>
-      </c>
-      <c r="H13">
-        <v>0.454818246333632</v>
-      </c>
-      <c r="I13">
-        <v>0.006446321021283539</v>
-      </c>
-      <c r="J13">
-        <v>0.006446321021283539</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.80694121009788</v>
-      </c>
-      <c r="N13">
-        <v>1.80694121009788</v>
-      </c>
-      <c r="O13">
-        <v>0.09523771677103515</v>
-      </c>
-      <c r="P13">
-        <v>0.09523771677103515</v>
-      </c>
-      <c r="Q13">
-        <v>0.8218298324046887</v>
-      </c>
-      <c r="R13">
-        <v>0.8218298324046887</v>
-      </c>
-      <c r="S13">
-        <v>0.0006139328956401717</v>
-      </c>
-      <c r="T13">
-        <v>0.0006139328956401717</v>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.9663805</v>
+      </c>
+      <c r="H14">
+        <v>1.932761</v>
+      </c>
+      <c r="I14">
+        <v>0.01237765481253107</v>
+      </c>
+      <c r="J14">
+        <v>0.008285956779289245</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.564735333333333</v>
+      </c>
+      <c r="N14">
+        <v>10.694206</v>
+      </c>
+      <c r="O14">
+        <v>0.1514640505181089</v>
+      </c>
+      <c r="P14">
+        <v>0.1554835727296604</v>
+      </c>
+      <c r="Q14">
+        <v>3.444890713794333</v>
+      </c>
+      <c r="R14">
+        <v>20.669344282766</v>
+      </c>
+      <c r="S14">
+        <v>0.00187476973382092</v>
+      </c>
+      <c r="T14">
+        <v>0.001288330163527442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.9663805</v>
+      </c>
+      <c r="H15">
+        <v>1.932761</v>
+      </c>
+      <c r="I15">
+        <v>0.01237765481253107</v>
+      </c>
+      <c r="J15">
+        <v>0.008285956779289245</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.710187333333333</v>
+      </c>
+      <c r="N15">
+        <v>14.130562</v>
+      </c>
+      <c r="O15">
+        <v>0.2001338067190093</v>
+      </c>
+      <c r="P15">
+        <v>0.2054449170361947</v>
+      </c>
+      <c r="Q15">
+        <v>4.551833190280333</v>
+      </c>
+      <c r="R15">
+        <v>27.310999141682</v>
+      </c>
+      <c r="S15">
+        <v>0.002477187175885709</v>
+      </c>
+      <c r="T15">
+        <v>0.001702307703086574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.9663805</v>
+      </c>
+      <c r="H16">
+        <v>1.932761</v>
+      </c>
+      <c r="I16">
+        <v>0.01237765481253107</v>
+      </c>
+      <c r="J16">
+        <v>0.008285956779289245</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.8252775</v>
+      </c>
+      <c r="N16">
+        <v>3.650555</v>
+      </c>
+      <c r="O16">
+        <v>0.07755524537386906</v>
+      </c>
+      <c r="P16">
+        <v>0.05307559381651387</v>
+      </c>
+      <c r="Q16">
+        <v>1.76391258308875</v>
+      </c>
+      <c r="R16">
+        <v>7.055650332354999</v>
+      </c>
+      <c r="S16">
+        <v>0.0009599520561388984</v>
+      </c>
+      <c r="T16">
+        <v>0.0004397820763987455</v>
       </c>
     </row>
   </sheetData>
